--- a/Code/Results/Cases/Case_1_201/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_201/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.334890075873773</v>
+        <v>1.849625529173466</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.7972849820046406</v>
+        <v>0.2540673328779519</v>
       </c>
       <c r="E2">
-        <v>0.6927238350322398</v>
+        <v>0.1941232997959048</v>
       </c>
       <c r="F2">
-        <v>4.04164448309993</v>
+        <v>4.801729747786169</v>
       </c>
       <c r="G2">
-        <v>0.0007774469593960963</v>
+        <v>0.002638964791689326</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6867576545465397</v>
+        <v>1.594364461584895</v>
       </c>
       <c r="J2">
-        <v>0.7832312789950748</v>
+        <v>0.214695060966136</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.157800894858383</v>
+        <v>1.521143295997831</v>
       </c>
       <c r="M2">
-        <v>1.108446202371582</v>
+        <v>0.8262143260414803</v>
       </c>
       <c r="N2">
-        <v>0.9303769859675768</v>
+        <v>2.156181415586711</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.038960839587389</v>
+        <v>1.786001265364916</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.6780004403050839</v>
+        <v>0.2268013807562568</v>
       </c>
       <c r="E3">
-        <v>0.5908060495553258</v>
+        <v>0.1693828956727188</v>
       </c>
       <c r="F3">
-        <v>3.639370866586802</v>
+        <v>4.753225963068559</v>
       </c>
       <c r="G3">
-        <v>0.0007932565595829247</v>
+        <v>0.002648369158398182</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6883889413857105</v>
+        <v>1.607815780250682</v>
       </c>
       <c r="J3">
-        <v>0.6714012871572237</v>
+        <v>0.1865416715813524</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.873214692794932</v>
+        <v>1.464487373882235</v>
       </c>
       <c r="M3">
-        <v>0.965103014361361</v>
+        <v>0.7966268535794399</v>
       </c>
       <c r="N3">
-        <v>1.008119607140014</v>
+        <v>2.184140424782194</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.861355401286346</v>
+        <v>1.747910263296717</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.6074681038275571</v>
+        <v>0.2102219068270017</v>
       </c>
       <c r="E4">
-        <v>0.5301288175357257</v>
+        <v>0.1542499865882121</v>
       </c>
       <c r="F4">
-        <v>3.406447344365688</v>
+        <v>4.72671600724297</v>
       </c>
       <c r="G4">
-        <v>0.0008031162194991205</v>
+        <v>0.002654439660905346</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6916137194982355</v>
+        <v>1.616908952631007</v>
       </c>
       <c r="J4">
-        <v>0.6045508971754998</v>
+        <v>0.1692676351267579</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.704165900672706</v>
+        <v>1.430672333893312</v>
       </c>
       <c r="M4">
-        <v>0.8795259249273712</v>
+        <v>0.7789426618601709</v>
       </c>
       <c r="N4">
-        <v>1.057412076351999</v>
+        <v>2.202085626710599</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.789859632477061</v>
+        <v>1.732631961869487</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.5792913105851198</v>
+        <v>0.203504575911893</v>
       </c>
       <c r="E5">
-        <v>0.5057944567988315</v>
+        <v>0.1480964863396252</v>
       </c>
       <c r="F5">
-        <v>3.314610941179836</v>
+        <v>4.716729285004959</v>
       </c>
       <c r="G5">
-        <v>0.0008071793123264938</v>
+        <v>0.002656988231392118</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6934391049315778</v>
+        <v>1.620823514763721</v>
       </c>
       <c r="J5">
-        <v>0.577679302467871</v>
+        <v>0.1622302222614138</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.636489547420553</v>
+        <v>1.417134241713541</v>
       </c>
       <c r="M5">
-        <v>0.8451736245288046</v>
+        <v>0.7718566706711272</v>
       </c>
       <c r="N5">
-        <v>1.077880743054759</v>
+        <v>2.209594009119641</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.778036932525538</v>
+        <v>1.730109726744161</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.5746436776768746</v>
+        <v>0.2023914685844943</v>
       </c>
       <c r="E6">
-        <v>0.5017751585677956</v>
+        <v>0.147075468417242</v>
       </c>
       <c r="F6">
-        <v>3.299535504105933</v>
+        <v>4.715120116289654</v>
       </c>
       <c r="G6">
-        <v>0.0008078568990127357</v>
+        <v>0.002657415946031709</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6937718047624699</v>
+        <v>1.621486129009476</v>
       </c>
       <c r="J6">
-        <v>0.573237400020048</v>
+        <v>0.1610617455799144</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.625319357169161</v>
+        <v>1.414900782197122</v>
       </c>
       <c r="M6">
-        <v>0.8394984759134303</v>
+        <v>0.7706872969141543</v>
       </c>
       <c r="N6">
-        <v>1.0813023193802</v>
+        <v>2.210852578388955</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.860387806081405</v>
+        <v>1.747703227704648</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.6070859518123086</v>
+        <v>0.2101311592217314</v>
       </c>
       <c r="E7">
-        <v>0.5297991527331405</v>
+        <v>0.1541669461881128</v>
       </c>
       <c r="F7">
-        <v>3.405196887754016</v>
+        <v>4.726578025942416</v>
       </c>
       <c r="G7">
-        <v>0.000803170824506449</v>
+        <v>0.002654473728467461</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6916363259403084</v>
+        <v>1.616960900373748</v>
       </c>
       <c r="J7">
-        <v>0.6041871015577698</v>
+        <v>0.1691727199858093</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.70324855105784</v>
+        <v>1.43048877873315</v>
       </c>
       <c r="M7">
-        <v>0.8790606401351795</v>
+        <v>0.778846611135144</v>
       </c>
       <c r="N7">
-        <v>1.057686591579525</v>
+        <v>2.202186095697899</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.231906544306128</v>
+        <v>1.827484994343365</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.7555183689760838</v>
+        <v>0.2446313367477444</v>
       </c>
       <c r="E8">
-        <v>0.657132255161315</v>
+        <v>0.1855800461987229</v>
       </c>
       <c r="F8">
-        <v>3.899723448695937</v>
+        <v>4.7843227377669</v>
       </c>
       <c r="G8">
-        <v>0.0007828708940038418</v>
+        <v>0.002642146133931433</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6868279313515444</v>
+        <v>1.598828954169484</v>
       </c>
       <c r="J8">
-        <v>0.7442401896376225</v>
+        <v>0.2049845005963249</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.058353658023776</v>
+        <v>1.501405015262236</v>
       </c>
       <c r="M8">
-        <v>1.058456592255872</v>
+        <v>0.8159118327697499</v>
       </c>
       <c r="N8">
-        <v>0.9568527084165108</v>
+        <v>2.165660076209755</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.001021036313205</v>
+        <v>1.991725390462818</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.07440429719918</v>
+        <v>0.3136554460776892</v>
       </c>
       <c r="E9">
-        <v>0.9266134433295434</v>
+        <v>0.2476997062652231</v>
       </c>
       <c r="F9">
-        <v>5.005880735560424</v>
+        <v>4.923822175375136</v>
       </c>
       <c r="G9">
-        <v>0.0007439021409548464</v>
+        <v>0.00262030748124448</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6975862644456612</v>
+        <v>1.569921900057167</v>
       </c>
       <c r="J9">
-        <v>1.03796333686563</v>
+        <v>0.2753660266536144</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>2.811678633869462</v>
+        <v>1.64831126361392</v>
       </c>
       <c r="M9">
-        <v>1.43452839918595</v>
+        <v>0.892472586499423</v>
       </c>
       <c r="N9">
-        <v>0.7720097286245933</v>
+        <v>2.100212692780874</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.604716420217358</v>
+        <v>2.11723631429436</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.336803201881878</v>
+        <v>0.3653255382764087</v>
       </c>
       <c r="E10">
-        <v>1.144968439922366</v>
+        <v>0.2937436978724293</v>
       </c>
       <c r="F10">
-        <v>5.944751660104572</v>
+        <v>5.042768196509712</v>
       </c>
       <c r="G10">
-        <v>0.0007151372904301494</v>
+        <v>0.002605666368986848</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7221628927427375</v>
+        <v>1.552783264960304</v>
       </c>
       <c r="J10">
-        <v>1.273684523120295</v>
+        <v>0.3272551060753983</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>3.420549469383332</v>
+        <v>1.761216182363626</v>
       </c>
       <c r="M10">
-        <v>1.734221779542281</v>
+        <v>0.95115743568185</v>
       </c>
       <c r="N10">
-        <v>0.6449366591278647</v>
+        <v>2.055901317067277</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.891892844478889</v>
+        <v>2.175408764755105</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.465736906358501</v>
+        <v>0.3890671975391342</v>
       </c>
       <c r="E11">
-        <v>1.251300458616981</v>
+        <v>0.3147980224710523</v>
       </c>
       <c r="F11">
-        <v>6.412338206201184</v>
+        <v>5.100553285043986</v>
       </c>
       <c r="G11">
-        <v>0.0007018253744790481</v>
+        <v>0.002599306211308411</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7382652281681672</v>
+        <v>1.545886805013019</v>
       </c>
       <c r="J11">
-        <v>1.387815616740113</v>
+        <v>0.3509190559452406</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>3.715876950479696</v>
+        <v>1.813703380319794</v>
       </c>
       <c r="M11">
-        <v>1.878238805102939</v>
+        <v>0.9784003121869489</v>
       </c>
       <c r="N11">
-        <v>0.5892733014351084</v>
+        <v>2.036563455240295</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.002906769385277</v>
+        <v>2.197593623203716</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.516334333110223</v>
+        <v>0.3980937872480013</v>
       </c>
       <c r="E12">
-        <v>1.292868558491165</v>
+        <v>0.322787949298899</v>
       </c>
       <c r="F12">
-        <v>6.59670304813045</v>
+        <v>5.122971690318991</v>
       </c>
       <c r="G12">
-        <v>0.0006967295621661776</v>
+        <v>0.002596940608545582</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7452157804351884</v>
+        <v>1.543405584850831</v>
       </c>
       <c r="J12">
-        <v>1.432321908997295</v>
+        <v>0.3598900231349091</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>3.831063987843265</v>
+        <v>1.833744306646793</v>
       </c>
       <c r="M12">
-        <v>1.934172179326609</v>
+        <v>0.9887963892160343</v>
       </c>
       <c r="N12">
-        <v>0.5685302447800886</v>
+        <v>2.029358761802783</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.978888395710726</v>
+        <v>2.192808747015647</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.505350770159765</v>
+        <v>0.3961481083386218</v>
       </c>
       <c r="E13">
-        <v>1.283852506249744</v>
+        <v>0.3210663905852442</v>
       </c>
       <c r="F13">
-        <v>6.556643930413827</v>
+        <v>5.11811949983607</v>
       </c>
       <c r="G13">
-        <v>0.0006978299037296322</v>
+        <v>0.002597448182702234</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7436781753115085</v>
+        <v>1.543934149398652</v>
       </c>
       <c r="J13">
-        <v>1.422673750777818</v>
+        <v>0.3579574998046269</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>3.806093628584335</v>
+        <v>1.829420736573752</v>
       </c>
       <c r="M13">
-        <v>1.922058221492662</v>
+        <v>0.9865538404607435</v>
       </c>
       <c r="N13">
-        <v>0.5729822104139455</v>
+        <v>2.030905162778638</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.900977504275318</v>
+        <v>2.177230787647147</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.469861344275273</v>
+        <v>0.3898090840003476</v>
       </c>
       <c r="E14">
-        <v>1.254692171790097</v>
+        <v>0.3154550070035071</v>
       </c>
       <c r="F14">
-        <v>6.427349718973858</v>
+        <v>5.102386863879701</v>
       </c>
       <c r="G14">
-        <v>0.0007014073899456148</v>
+        <v>0.002599110734739922</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7388189863341665</v>
+        <v>1.545680056497282</v>
       </c>
       <c r="J14">
-        <v>1.391449364811535</v>
+        <v>0.3516568953406534</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>3.72528142188537</v>
+        <v>1.815348830478058</v>
       </c>
       <c r="M14">
-        <v>1.882810502323466</v>
+        <v>0.9792539978110426</v>
       </c>
       <c r="N14">
-        <v>0.5875598557389452</v>
+        <v>2.035968351538645</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.853565840690408</v>
+        <v>2.167709222785504</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.448367779139147</v>
+        <v>0.3859310181909734</v>
       </c>
       <c r="E15">
-        <v>1.237010539926416</v>
+        <v>0.3120201455331824</v>
       </c>
       <c r="F15">
-        <v>6.349155011212048</v>
+        <v>5.092820267633812</v>
       </c>
       <c r="G15">
-        <v>0.0007035907847683218</v>
+        <v>0.002600134667211687</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7359586504451414</v>
+        <v>1.546766473596385</v>
       </c>
       <c r="J15">
-        <v>1.372501446405806</v>
+        <v>0.3477989304918481</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>3.67624298128078</v>
+        <v>1.806750988064834</v>
       </c>
       <c r="M15">
-        <v>1.858962184062761</v>
+        <v>0.9747930595213745</v>
       </c>
       <c r="N15">
-        <v>0.5965336872098472</v>
+        <v>2.039085093980519</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.586238058303536</v>
+        <v>2.113456392349008</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.32860097105177</v>
+        <v>0.3637789063499497</v>
       </c>
       <c r="E16">
-        <v>1.13818362801895</v>
+        <v>0.2923700611208062</v>
       </c>
       <c r="F16">
-        <v>5.915125698253746</v>
+        <v>5.039066440950819</v>
       </c>
       <c r="G16">
-        <v>0.0007160009298222787</v>
+        <v>0.002606088033719421</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.721221168856907</v>
+        <v>1.553252151553849</v>
       </c>
       <c r="J16">
-        <v>1.26638794298637</v>
+        <v>0.3257099251236752</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>3.401674955226326</v>
+        <v>1.757808955264466</v>
       </c>
       <c r="M16">
-        <v>1.724987756197066</v>
+        <v>0.9493881513917586</v>
       </c>
       <c r="N16">
-        <v>0.6486197078705978</v>
+        <v>2.057181607721747</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.425747936347761</v>
+        <v>2.080450803180725</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.25782658135418</v>
+        <v>0.350251403844311</v>
       </c>
       <c r="E17">
-        <v>1.079534515265692</v>
+        <v>0.2803442503851983</v>
       </c>
       <c r="F17">
-        <v>5.6601627459616</v>
+        <v>5.007037229389823</v>
       </c>
       <c r="G17">
-        <v>0.0007235421093225725</v>
+        <v>0.002609816887324529</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7135328094285001</v>
+        <v>1.557462048991283</v>
       </c>
       <c r="J17">
-        <v>1.203242505695215</v>
+        <v>0.3121752270533023</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>3.238384875943154</v>
+        <v>1.728075306547964</v>
       </c>
       <c r="M17">
-        <v>1.644951164866683</v>
+        <v>0.9339439325332961</v>
       </c>
       <c r="N17">
-        <v>0.6811392297291849</v>
+        <v>2.068493345928155</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.334586183184115</v>
+        <v>2.06156813922928</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.217990197223116</v>
+        <v>0.3424928903565387</v>
       </c>
       <c r="E18">
-        <v>1.046438255272363</v>
+        <v>0.2734374609069903</v>
       </c>
       <c r="F18">
-        <v>5.517217647626637</v>
+        <v>4.988960390136754</v>
       </c>
       <c r="G18">
-        <v>0.0007278598998474505</v>
+        <v>0.002611989896358051</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.7095634360018224</v>
+        <v>1.559968126844652</v>
       </c>
       <c r="J18">
-        <v>1.167550629300393</v>
+        <v>0.3043959262989233</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>3.146139445158667</v>
+        <v>1.711079101645225</v>
       </c>
       <c r="M18">
-        <v>1.599618224308642</v>
+        <v>0.9251122263917892</v>
       </c>
       <c r="N18">
-        <v>0.700043351267702</v>
+        <v>2.075076686303491</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.303905378360014</v>
+        <v>2.055192147956404</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.204641595148871</v>
+        <v>0.3398697316345647</v>
       </c>
       <c r="E19">
-        <v>1.035334187656204</v>
+        <v>0.2711006374352252</v>
       </c>
       <c r="F19">
-        <v>5.469416186445955</v>
+        <v>4.982898989703131</v>
       </c>
       <c r="G19">
-        <v>0.0007293190282143793</v>
+        <v>0.002612730504840385</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7082934087208699</v>
+        <v>1.56083115437854</v>
       </c>
       <c r="J19">
-        <v>1.15556612400826</v>
+        <v>0.3017628909684618</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>3.115175691738102</v>
+        <v>1.70534255399383</v>
       </c>
       <c r="M19">
-        <v>1.584382176827219</v>
+        <v>0.9221307558888867</v>
       </c>
       <c r="N19">
-        <v>0.7064775326451489</v>
+        <v>2.077318930761253</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.442710618891056</v>
+        <v>2.08395381299033</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.265267956819514</v>
+        <v>0.3516891222353138</v>
       </c>
       <c r="E20">
-        <v>1.08570999719943</v>
+        <v>0.2816233585162848</v>
       </c>
       <c r="F20">
-        <v>5.686911332494333</v>
+        <v>5.010410977826353</v>
       </c>
       <c r="G20">
-        <v>0.0007227415182999995</v>
+        <v>0.002609417020770782</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7143034568490947</v>
+        <v>1.557005130168413</v>
       </c>
       <c r="J20">
-        <v>1.209897611032716</v>
+        <v>0.3136154394901496</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>3.255589508059302</v>
+        <v>1.731229530949349</v>
       </c>
       <c r="M20">
-        <v>1.653396677238703</v>
+        <v>0.9355826680443329</v>
       </c>
       <c r="N20">
-        <v>0.6776566187137725</v>
+        <v>2.067281207699183</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.923795996861998</v>
+        <v>2.181802161182986</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.480233559376018</v>
+        <v>0.3916700112983165</v>
       </c>
       <c r="E21">
-        <v>1.263219114295666</v>
+        <v>0.3171027299972025</v>
       </c>
       <c r="F21">
-        <v>6.465114537624146</v>
+        <v>5.106993297853478</v>
       </c>
       <c r="G21">
-        <v>0.0007003582952204864</v>
+        <v>0.002598621242368575</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7402217441020511</v>
+        <v>1.545163697125254</v>
       </c>
       <c r="J21">
-        <v>1.400582986589399</v>
+        <v>0.3535072543426168</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>3.74892019503335</v>
+        <v>1.819477581769718</v>
       </c>
       <c r="M21">
-        <v>1.894297842967148</v>
+        <v>0.9813959636354781</v>
       </c>
       <c r="N21">
-        <v>0.5832686947705383</v>
+        <v>2.034477961833545</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.251740356102744</v>
+        <v>2.246662924739837</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.631342792415609</v>
+        <v>0.4180114893977418</v>
       </c>
       <c r="E22">
-        <v>1.387033394614946</v>
+        <v>0.3403910010798938</v>
       </c>
       <c r="F22">
-        <v>7.017294789712281</v>
+        <v>5.173246035432129</v>
       </c>
       <c r="G22">
-        <v>0.0006853940607524869</v>
+        <v>0.002591815199784051</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7622317701876469</v>
+        <v>1.538184672570921</v>
       </c>
       <c r="J22">
-        <v>1.532919934138619</v>
+        <v>0.3796374969128351</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>4.09138329787811</v>
+        <v>1.878117048433467</v>
       </c>
       <c r="M22">
-        <v>2.060087708778596</v>
+        <v>1.011803248532729</v>
       </c>
       <c r="N22">
-        <v>0.5235536627939776</v>
+        <v>2.013727864753888</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.075284086382794</v>
+        <v>2.211961673041287</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.549555973634881</v>
+        <v>0.4039324718581554</v>
       </c>
       <c r="E23">
-        <v>1.320114316555049</v>
+        <v>0.3279519217479532</v>
       </c>
       <c r="F23">
-        <v>6.717989424826158</v>
+        <v>5.137596604987607</v>
       </c>
       <c r="G23">
-        <v>0.0006934206701009724</v>
+        <v>0.002595424975426176</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7499614493817433</v>
+        <v>1.5418396621114</v>
       </c>
       <c r="J23">
-        <v>1.461460547817126</v>
+        <v>0.3656854543953614</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>3.906475413194983</v>
+        <v>1.846730741938018</v>
       </c>
       <c r="M23">
-        <v>1.970718683431059</v>
+        <v>0.9955313091982845</v>
       </c>
       <c r="N23">
-        <v>0.555233387195555</v>
+        <v>2.024739468990596</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.43503837770794</v>
+        <v>2.082369813651724</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.261901083081852</v>
+        <v>0.3510390718882945</v>
       </c>
       <c r="E24">
-        <v>1.082916145778512</v>
+        <v>0.2810450520095458</v>
       </c>
       <c r="F24">
-        <v>5.674807075095032</v>
+        <v>5.008884656505558</v>
       </c>
       <c r="G24">
-        <v>0.000723103519192554</v>
+        <v>0.002609597709464459</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7139536535043547</v>
+        <v>1.557211436138779</v>
       </c>
       <c r="J24">
-        <v>1.206886954903439</v>
+        <v>0.3129643133942182</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>3.247806260855555</v>
+        <v>1.729803200886977</v>
       </c>
       <c r="M24">
-        <v>1.649576360293892</v>
+        <v>0.9348416482253157</v>
       </c>
       <c r="N24">
-        <v>0.6792304605850763</v>
+        <v>2.067828966008776</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.787345423081376</v>
+        <v>1.946450547531981</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.9841581534153079</v>
+        <v>0.2948234084059322</v>
       </c>
       <c r="E25">
-        <v>0.8508482043828423</v>
+        <v>0.2308301352006907</v>
       </c>
       <c r="F25">
-        <v>4.688139465515178</v>
+        <v>4.883226915091768</v>
       </c>
       <c r="G25">
-        <v>0.0007544128150072001</v>
+        <v>0.002625967443828673</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6921163724424062</v>
+        <v>1.577025495084328</v>
       </c>
       <c r="J25">
-        <v>0.9557166894895488</v>
+        <v>0.256300678348623</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>2.599917555058425</v>
+        <v>1.6077102367706</v>
       </c>
       <c r="M25">
-        <v>1.329412653812852</v>
+        <v>0.8713385335620814</v>
       </c>
       <c r="N25">
-        <v>0.8205538163401407</v>
+        <v>2.117255830167051</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_201/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_201/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.849625529173466</v>
+        <v>2.334890075873716</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2540673328779519</v>
+        <v>0.7972849820044985</v>
       </c>
       <c r="E2">
-        <v>0.1941232997959048</v>
+        <v>0.692723835032254</v>
       </c>
       <c r="F2">
-        <v>4.801729747786169</v>
+        <v>4.04164448309993</v>
       </c>
       <c r="G2">
-        <v>0.002638964791689326</v>
+        <v>0.0007774469594488165</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.594364461584895</v>
+        <v>0.6867576545465326</v>
       </c>
       <c r="J2">
-        <v>0.214695060966136</v>
+        <v>0.7832312789951033</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.521143295997831</v>
+        <v>2.157800894858354</v>
       </c>
       <c r="M2">
-        <v>0.8262143260414803</v>
+        <v>1.108446202371596</v>
       </c>
       <c r="N2">
-        <v>2.156181415586711</v>
+        <v>0.9303769859676185</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.786001265364916</v>
+        <v>2.038960839587446</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2268013807562568</v>
+        <v>0.6780004403051123</v>
       </c>
       <c r="E3">
-        <v>0.1693828956727188</v>
+        <v>0.5908060495553542</v>
       </c>
       <c r="F3">
-        <v>4.753225963068559</v>
+        <v>3.639370866586802</v>
       </c>
       <c r="G3">
-        <v>0.002648369158398182</v>
+        <v>0.000793256559526188</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.607815780250682</v>
+        <v>0.6883889413857105</v>
       </c>
       <c r="J3">
-        <v>0.1865416715813524</v>
+        <v>0.6714012871574369</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.464487373882235</v>
+        <v>1.873214692795074</v>
       </c>
       <c r="M3">
-        <v>0.7966268535794399</v>
+        <v>0.9651030143613539</v>
       </c>
       <c r="N3">
-        <v>2.184140424782194</v>
+        <v>1.008119607140079</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.747910263296717</v>
+        <v>1.861355401286346</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2102219068270017</v>
+        <v>0.6074681038278982</v>
       </c>
       <c r="E4">
-        <v>0.1542499865882121</v>
+        <v>0.5301288175356831</v>
       </c>
       <c r="F4">
-        <v>4.72671600724297</v>
+        <v>3.406447344365716</v>
       </c>
       <c r="G4">
-        <v>0.002654439660905346</v>
+        <v>0.0008031162196121412</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.616908952631007</v>
+        <v>0.6916137194982426</v>
       </c>
       <c r="J4">
-        <v>0.1692676351267579</v>
+        <v>0.6045508971754856</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.430672333893312</v>
+        <v>1.704165900672734</v>
       </c>
       <c r="M4">
-        <v>0.7789426618601709</v>
+        <v>0.879525924927357</v>
       </c>
       <c r="N4">
-        <v>2.202085626710599</v>
+        <v>1.057412076351982</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.732631961869487</v>
+        <v>1.789859632477061</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.203504575911893</v>
+        <v>0.5792913105850062</v>
       </c>
       <c r="E5">
-        <v>0.1480964863396252</v>
+        <v>0.5057944567988386</v>
       </c>
       <c r="F5">
-        <v>4.716729285004959</v>
+        <v>3.314610941179836</v>
       </c>
       <c r="G5">
-        <v>0.002656988231392118</v>
+        <v>0.0008071793123122829</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.620823514763721</v>
+        <v>0.693439104931592</v>
       </c>
       <c r="J5">
-        <v>0.1622302222614138</v>
+        <v>0.577679302467871</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.417134241713541</v>
+        <v>1.636489547420553</v>
       </c>
       <c r="M5">
-        <v>0.7718566706711272</v>
+        <v>0.8451736245287975</v>
       </c>
       <c r="N5">
-        <v>2.209594009119641</v>
+        <v>1.077880743054698</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.730109726744161</v>
+        <v>1.778036932525566</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2023914685844943</v>
+        <v>0.5746436776768462</v>
       </c>
       <c r="E6">
-        <v>0.147075468417242</v>
+        <v>0.501775158567817</v>
       </c>
       <c r="F6">
-        <v>4.715120116289654</v>
+        <v>3.299535504105933</v>
       </c>
       <c r="G6">
-        <v>0.002657415946031709</v>
+        <v>0.0008078568991425841</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.621486129009476</v>
+        <v>0.6937718047624628</v>
       </c>
       <c r="J6">
-        <v>0.1610617455799144</v>
+        <v>0.5732374000200906</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.414900782197122</v>
+        <v>1.625319357169133</v>
       </c>
       <c r="M6">
-        <v>0.7706872969141543</v>
+        <v>0.8394984759134161</v>
       </c>
       <c r="N6">
-        <v>2.210852578388955</v>
+        <v>1.081302319380206</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.747703227704648</v>
+        <v>1.860387806081377</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2101311592217314</v>
+        <v>0.6070859518126497</v>
       </c>
       <c r="E7">
-        <v>0.1541669461881128</v>
+        <v>0.5297991527331263</v>
       </c>
       <c r="F7">
-        <v>4.726578025942416</v>
+        <v>3.405196887754045</v>
       </c>
       <c r="G7">
-        <v>0.002654473728467461</v>
+        <v>0.000803170824415428</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.616960900373748</v>
+        <v>0.6916363259403084</v>
       </c>
       <c r="J7">
-        <v>0.1691727199858093</v>
+        <v>0.6041871015578835</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.43048877873315</v>
+        <v>1.703248551057726</v>
       </c>
       <c r="M7">
-        <v>0.778846611135144</v>
+        <v>0.8790606401351937</v>
       </c>
       <c r="N7">
-        <v>2.202186095697899</v>
+        <v>1.057686591579512</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.827484994343365</v>
+        <v>2.231906544306241</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2446313367477444</v>
+        <v>0.7555183689761122</v>
       </c>
       <c r="E8">
-        <v>0.1855800461987229</v>
+        <v>0.657132255161244</v>
       </c>
       <c r="F8">
-        <v>4.7843227377669</v>
+        <v>3.899723448695937</v>
       </c>
       <c r="G8">
-        <v>0.002642146133931433</v>
+        <v>0.00078287089397824</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.598828954169484</v>
+        <v>0.6868279313515728</v>
       </c>
       <c r="J8">
-        <v>0.2049845005963249</v>
+        <v>0.7442401896376225</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.501405015262236</v>
+        <v>2.058353658023634</v>
       </c>
       <c r="M8">
-        <v>0.8159118327697499</v>
+        <v>1.058456592255865</v>
       </c>
       <c r="N8">
-        <v>2.165660076209755</v>
+        <v>0.9568527084165739</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.991725390462818</v>
+        <v>3.001021036313318</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3136554460776892</v>
+        <v>1.07440429719955</v>
       </c>
       <c r="E9">
-        <v>0.2476997062652231</v>
+        <v>0.9266134433295576</v>
       </c>
       <c r="F9">
-        <v>4.923822175375136</v>
+        <v>5.005880735560396</v>
       </c>
       <c r="G9">
-        <v>0.00262030748124448</v>
+        <v>0.0007439021409546616</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.569921900057167</v>
+        <v>0.6975862644456683</v>
       </c>
       <c r="J9">
-        <v>0.2753660266536144</v>
+        <v>1.037963336865772</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.64831126361392</v>
+        <v>2.811678633869519</v>
       </c>
       <c r="M9">
-        <v>0.892472586499423</v>
+        <v>1.434528399185936</v>
       </c>
       <c r="N9">
-        <v>2.100212692780874</v>
+        <v>0.7720097286246537</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.11723631429436</v>
+        <v>3.604716420217358</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3653255382764087</v>
+        <v>1.336803201881509</v>
       </c>
       <c r="E10">
-        <v>0.2937436978724293</v>
+        <v>1.144968439922351</v>
       </c>
       <c r="F10">
-        <v>5.042768196509712</v>
+        <v>5.944751660104515</v>
       </c>
       <c r="G10">
-        <v>0.002605666368986848</v>
+        <v>0.0007151372903853111</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.552783264960304</v>
+        <v>0.7221628927427588</v>
       </c>
       <c r="J10">
-        <v>0.3272551060753983</v>
+        <v>1.273684523120352</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.761216182363626</v>
+        <v>3.420549469383445</v>
       </c>
       <c r="M10">
-        <v>0.95115743568185</v>
+        <v>1.734221779542281</v>
       </c>
       <c r="N10">
-        <v>2.055901317067277</v>
+        <v>0.6449366591279109</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.175408764755105</v>
+        <v>3.891892844478946</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3890671975391342</v>
+        <v>1.465736906358075</v>
       </c>
       <c r="E11">
-        <v>0.3147980224710523</v>
+        <v>1.251300458617024</v>
       </c>
       <c r="F11">
-        <v>5.100553285043986</v>
+        <v>6.412338206201184</v>
       </c>
       <c r="G11">
-        <v>0.002599306211308411</v>
+        <v>0.0007018253743738233</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.545886805013019</v>
+        <v>0.7382652281681814</v>
       </c>
       <c r="J11">
-        <v>0.3509190559452406</v>
+        <v>1.387815616740085</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.813703380319794</v>
+        <v>3.715876950479696</v>
       </c>
       <c r="M11">
-        <v>0.9784003121869489</v>
+        <v>1.878238805102924</v>
       </c>
       <c r="N11">
-        <v>2.036563455240295</v>
+        <v>0.5892733014351474</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.197593623203716</v>
+        <v>4.002906769385106</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3980937872480013</v>
+        <v>1.51633433311062</v>
       </c>
       <c r="E12">
-        <v>0.322787949298899</v>
+        <v>1.292868558491165</v>
       </c>
       <c r="F12">
-        <v>5.122971690318991</v>
+        <v>6.596703048130422</v>
       </c>
       <c r="G12">
-        <v>0.002596940608545582</v>
+        <v>0.0006967295622727421</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.543405584850831</v>
+        <v>0.7452157804351884</v>
       </c>
       <c r="J12">
-        <v>0.3598900231349091</v>
+        <v>1.432321908997068</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.833744306646793</v>
+        <v>3.831063987843322</v>
       </c>
       <c r="M12">
-        <v>0.9887963892160343</v>
+        <v>1.93417217932658</v>
       </c>
       <c r="N12">
-        <v>2.029358761802783</v>
+        <v>0.568530244780078</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.192808747015647</v>
+        <v>3.978888395710783</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3961481083386218</v>
+        <v>1.505350770159566</v>
       </c>
       <c r="E13">
-        <v>0.3210663905852442</v>
+        <v>1.283852506249744</v>
       </c>
       <c r="F13">
-        <v>5.11811949983607</v>
+        <v>6.556643930413799</v>
       </c>
       <c r="G13">
-        <v>0.002597448182702234</v>
+        <v>0.0006978299036221503</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.543934149398652</v>
+        <v>0.7436781753115085</v>
       </c>
       <c r="J13">
-        <v>0.3579574998046269</v>
+        <v>1.422673750777648</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.829420736573752</v>
+        <v>3.806093628584335</v>
       </c>
       <c r="M13">
-        <v>0.9865538404607435</v>
+        <v>1.922058221492676</v>
       </c>
       <c r="N13">
-        <v>2.030905162778638</v>
+        <v>0.5729822104138727</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.177230787647147</v>
+        <v>3.900977504275261</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3898090840003476</v>
+        <v>1.469861344275643</v>
       </c>
       <c r="E14">
-        <v>0.3154550070035071</v>
+        <v>1.254692171790111</v>
       </c>
       <c r="F14">
-        <v>5.102386863879701</v>
+        <v>6.427349718973858</v>
       </c>
       <c r="G14">
-        <v>0.002599110734739922</v>
+        <v>0.000701407390042899</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.545680056497282</v>
+        <v>0.7388189863341665</v>
       </c>
       <c r="J14">
-        <v>0.3516568953406534</v>
+        <v>1.391449364811422</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.815348830478058</v>
+        <v>3.725281421885256</v>
       </c>
       <c r="M14">
-        <v>0.9792539978110426</v>
+        <v>1.882810502323451</v>
       </c>
       <c r="N14">
-        <v>2.035968351538645</v>
+        <v>0.5875598557389949</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.167709222785504</v>
+        <v>3.853565840690464</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3859310181909734</v>
+        <v>1.448367779139147</v>
       </c>
       <c r="E15">
-        <v>0.3120201455331824</v>
+        <v>1.237010539926359</v>
       </c>
       <c r="F15">
-        <v>5.092820267633812</v>
+        <v>6.349155011211991</v>
       </c>
       <c r="G15">
-        <v>0.002600134667211687</v>
+        <v>0.000703590784666879</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.546766473596385</v>
+        <v>0.7359586504451414</v>
       </c>
       <c r="J15">
-        <v>0.3477989304918481</v>
+        <v>1.372501446405749</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.806750988064834</v>
+        <v>3.676242981280723</v>
       </c>
       <c r="M15">
-        <v>0.9747930595213745</v>
+        <v>1.858962184062747</v>
       </c>
       <c r="N15">
-        <v>2.039085093980519</v>
+        <v>0.5965336872099183</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.113456392349008</v>
+        <v>3.58623805830365</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3637789063499497</v>
+        <v>1.328600971051799</v>
       </c>
       <c r="E16">
-        <v>0.2923700611208062</v>
+        <v>1.138183628018936</v>
       </c>
       <c r="F16">
-        <v>5.039066440950819</v>
+        <v>5.915125698253775</v>
       </c>
       <c r="G16">
-        <v>0.002606088033719421</v>
+        <v>0.0007160009296244581</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.553252151553849</v>
+        <v>0.7212211688569141</v>
       </c>
       <c r="J16">
-        <v>0.3257099251236752</v>
+        <v>1.266387942986512</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.757808955264466</v>
+        <v>3.40167495522644</v>
       </c>
       <c r="M16">
-        <v>0.9493881513917586</v>
+        <v>1.724987756197052</v>
       </c>
       <c r="N16">
-        <v>2.057181607721747</v>
+        <v>0.6486197078705764</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.080450803180725</v>
+        <v>3.425747936348046</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.350251403844311</v>
+        <v>1.257826581354408</v>
       </c>
       <c r="E17">
-        <v>0.2803442503851983</v>
+        <v>1.079534515265593</v>
       </c>
       <c r="F17">
-        <v>5.007037229389823</v>
+        <v>5.660162745961628</v>
       </c>
       <c r="G17">
-        <v>0.002609816887324529</v>
+        <v>0.0007235421094197054</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.557462048991283</v>
+        <v>0.7135328094285072</v>
       </c>
       <c r="J17">
-        <v>0.3121752270533023</v>
+        <v>1.203242505695187</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.728075306547964</v>
+        <v>3.238384875942984</v>
       </c>
       <c r="M17">
-        <v>0.9339439325332961</v>
+        <v>1.644951164866669</v>
       </c>
       <c r="N17">
-        <v>2.068493345928155</v>
+        <v>0.6811392297291885</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.06156813922928</v>
+        <v>3.334586183184058</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3424928903565387</v>
+        <v>1.217990197223116</v>
       </c>
       <c r="E18">
-        <v>0.2734374609069903</v>
+        <v>1.046438255272392</v>
       </c>
       <c r="F18">
-        <v>4.988960390136754</v>
+        <v>5.517217647626609</v>
       </c>
       <c r="G18">
-        <v>0.002611989896358051</v>
+        <v>0.0007278598998325971</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.559968126844652</v>
+        <v>0.7095634360018295</v>
       </c>
       <c r="J18">
-        <v>0.3043959262989233</v>
+        <v>1.167550629300251</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.711079101645225</v>
+        <v>3.146139445158838</v>
       </c>
       <c r="M18">
-        <v>0.9251122263917892</v>
+        <v>1.599618224308657</v>
       </c>
       <c r="N18">
-        <v>2.075076686303491</v>
+        <v>0.7000433512677517</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.055192147956404</v>
+        <v>3.303905378360071</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3398697316345647</v>
+        <v>1.204641595148644</v>
       </c>
       <c r="E19">
-        <v>0.2711006374352252</v>
+        <v>1.035334187656176</v>
       </c>
       <c r="F19">
-        <v>4.982898989703131</v>
+        <v>5.469416186445983</v>
       </c>
       <c r="G19">
-        <v>0.002612730504840385</v>
+        <v>0.0007293190284174411</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.56083115437854</v>
+        <v>0.7082934087208699</v>
       </c>
       <c r="J19">
-        <v>0.3017628909684618</v>
+        <v>1.155566124008317</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.70534255399383</v>
+        <v>3.115175691738102</v>
       </c>
       <c r="M19">
-        <v>0.9221307558888867</v>
+        <v>1.584382176827219</v>
       </c>
       <c r="N19">
-        <v>2.077318930761253</v>
+        <v>0.7064775326451347</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.08395381299033</v>
+        <v>3.442710618891226</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3516891222353138</v>
+        <v>1.265267956819457</v>
       </c>
       <c r="E20">
-        <v>0.2816233585162848</v>
+        <v>1.085709997199444</v>
       </c>
       <c r="F20">
-        <v>5.010410977826353</v>
+        <v>5.686911332494361</v>
       </c>
       <c r="G20">
-        <v>0.002609417020770782</v>
+        <v>0.0007227415184046961</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.557005130168413</v>
+        <v>0.7143034568490805</v>
       </c>
       <c r="J20">
-        <v>0.3136154394901496</v>
+        <v>1.209897611032659</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.731229530949349</v>
+        <v>3.255589508059302</v>
       </c>
       <c r="M20">
-        <v>0.9355826680443329</v>
+        <v>1.653396677238703</v>
       </c>
       <c r="N20">
-        <v>2.067281207699183</v>
+        <v>0.67765661871376</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.181802161182986</v>
+        <v>3.923795996862225</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3916700112983165</v>
+        <v>1.48023355937616</v>
       </c>
       <c r="E21">
-        <v>0.3171027299972025</v>
+        <v>1.263219114295637</v>
       </c>
       <c r="F21">
-        <v>5.106993297853478</v>
+        <v>6.465114537624146</v>
       </c>
       <c r="G21">
-        <v>0.002598621242368575</v>
+        <v>0.0007003582952186861</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.545163697125254</v>
+        <v>0.7402217441020582</v>
       </c>
       <c r="J21">
-        <v>0.3535072543426168</v>
+        <v>1.400582986589313</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.819477581769718</v>
+        <v>3.748920195033293</v>
       </c>
       <c r="M21">
-        <v>0.9813959636354781</v>
+        <v>1.894297842967148</v>
       </c>
       <c r="N21">
-        <v>2.034477961833545</v>
+        <v>0.5832686947705206</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.246662924739837</v>
+        <v>4.2517403561028</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4180114893977418</v>
+        <v>1.63134279241558</v>
       </c>
       <c r="E22">
-        <v>0.3403910010798938</v>
+        <v>1.38703339461496</v>
       </c>
       <c r="F22">
-        <v>5.173246035432129</v>
+        <v>7.017294789712281</v>
       </c>
       <c r="G22">
-        <v>0.002591815199784051</v>
+        <v>0.0006853940606466285</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.538184672570921</v>
+        <v>0.7622317701876398</v>
       </c>
       <c r="J22">
-        <v>0.3796374969128351</v>
+        <v>1.532919934138619</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.878117048433467</v>
+        <v>4.091383297878167</v>
       </c>
       <c r="M22">
-        <v>1.011803248532729</v>
+        <v>2.060087708778596</v>
       </c>
       <c r="N22">
-        <v>2.013727864753888</v>
+        <v>0.5235536627939634</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.211961673041287</v>
+        <v>4.075284086382737</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4039324718581554</v>
+        <v>1.549555973634881</v>
       </c>
       <c r="E23">
-        <v>0.3279519217479532</v>
+        <v>1.32011431655512</v>
       </c>
       <c r="F23">
-        <v>5.137596604987607</v>
+        <v>6.717989424826158</v>
       </c>
       <c r="G23">
-        <v>0.002595424975426176</v>
+        <v>0.0006934206703081256</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.5418396621114</v>
+        <v>0.7499614493817433</v>
       </c>
       <c r="J23">
-        <v>0.3656854543953614</v>
+        <v>1.461460547817268</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.846730741938018</v>
+        <v>3.906475413194926</v>
       </c>
       <c r="M23">
-        <v>0.9955313091982845</v>
+        <v>1.970718683431073</v>
       </c>
       <c r="N23">
-        <v>2.024739468990596</v>
+        <v>0.5552333871955604</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.082369813651724</v>
+        <v>3.435038377707883</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3510390718882945</v>
+        <v>1.261901083082023</v>
       </c>
       <c r="E24">
-        <v>0.2810450520095458</v>
+        <v>1.082916145778512</v>
       </c>
       <c r="F24">
-        <v>5.008884656505558</v>
+        <v>5.674807075095032</v>
       </c>
       <c r="G24">
-        <v>0.002609597709464459</v>
+        <v>0.0007231035192460447</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.557211436138779</v>
+        <v>0.7139536535043334</v>
       </c>
       <c r="J24">
-        <v>0.3129643133942182</v>
+        <v>1.206886954903467</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.729803200886977</v>
+        <v>3.247806260855498</v>
       </c>
       <c r="M24">
-        <v>0.9348416482253157</v>
+        <v>1.649576360293878</v>
       </c>
       <c r="N24">
-        <v>2.067828966008776</v>
+        <v>0.679230460585142</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.946450547531981</v>
+        <v>2.78734542308149</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2948234084059322</v>
+        <v>0.9841581534153079</v>
       </c>
       <c r="E25">
-        <v>0.2308301352006907</v>
+        <v>0.8508482043828849</v>
       </c>
       <c r="F25">
-        <v>4.883226915091768</v>
+        <v>4.688139465515206</v>
       </c>
       <c r="G25">
-        <v>0.002625967443828673</v>
+        <v>0.0007544128150048224</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.577025495084328</v>
+        <v>0.692116372442392</v>
       </c>
       <c r="J25">
-        <v>0.256300678348623</v>
+        <v>0.9557166894896625</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.6077102367706</v>
+        <v>2.599917555058425</v>
       </c>
       <c r="M25">
-        <v>0.8713385335620814</v>
+        <v>1.329412653812881</v>
       </c>
       <c r="N25">
-        <v>2.117255830167051</v>
+        <v>0.8205538163401123</v>
       </c>
       <c r="O25">
         <v>0</v>
